--- a/WIP/Users/DuongLV/FunctionList/Function.xlsx
+++ b/WIP/Users/DuongLV/FunctionList/Function.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>List function</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>View pricing</t>
+  </si>
+  <si>
+    <t>CTC-CarrierTradingCenter</t>
   </si>
 </sst>
 </file>
@@ -491,16 +494,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -509,101 +596,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -939,7 +951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -949,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,544 +981,557 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="4"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="3" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="4"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="3" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="4"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="3" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="4"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="4"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="14" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="4"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="3" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="3" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="4"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="14" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="3" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="27" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="3">
         <v>2</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="4"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="3" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="4"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="3" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="3" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="14" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="9"/>
+      <c r="F20" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="3" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="4"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="3" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="20" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="36"/>
+      <c r="F23" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="3" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="4"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="29" t="s">
+      <c r="A25" s="5"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="15"/>
+      <c r="F25" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="4"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="3">
         <v>3</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="4"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="8" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="4"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="3" t="s">
+      <c r="A28" s="4"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="4"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="3" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="4"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="14" t="s">
+      <c r="A30" s="4"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="3" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="4"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="3" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="4"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="3" t="s">
+      <c r="A32" s="4"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="3" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="31" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="32"/>
-      <c r="F34" s="3" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="4"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="3" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="4"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="F36" s="3" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="14" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="3" t="s">
+      <c r="E37" s="9"/>
+      <c r="F37" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="3" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="4"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="3" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="4"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="14" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="3" t="s">
+      <c r="E40" s="9"/>
+      <c r="F40" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="4"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="20"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="26"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="19"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="2" t="s">
         <v>9</v>
       </c>
@@ -1515,83 +1540,78 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A42" s="3">
         <v>4</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="9"/>
+      <c r="D42" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="3" t="s">
+      <c r="E42" s="34"/>
+      <c r="F42" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="37" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="17"/>
+      <c r="F43" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="10"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="26"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="5" t="s">
+      <c r="A44" s="5"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="3" t="s">
+      <c r="E44" s="34"/>
+      <c r="F44" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="4"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B3:C14"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B15:C25"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D20:E22"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="B42:C44"/>
-    <mergeCell ref="B26:C41"/>
-    <mergeCell ref="D26:E29"/>
-    <mergeCell ref="D30:E33"/>
-    <mergeCell ref="D34:E36"/>
+  <mergeCells count="66">
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
     <mergeCell ref="D37:E39"/>
     <mergeCell ref="D40:E41"/>
     <mergeCell ref="F5:I5"/>
@@ -1608,28 +1628,34 @@
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D26:E29"/>
     <mergeCell ref="D15:E19"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B3:C14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B15:C25"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D20:E22"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="B42:C44"/>
+    <mergeCell ref="B26:C41"/>
+    <mergeCell ref="D30:E33"/>
+    <mergeCell ref="D34:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/WIP/Users/DuongLV/FunctionList/Function.xlsx
+++ b/WIP/Users/DuongLV/FunctionList/Function.xlsx
@@ -75,12 +75,6 @@
     <t>Edit user profile</t>
   </si>
   <si>
-    <t>View price list</t>
-  </si>
-  <si>
-    <t>Edit price list</t>
-  </si>
-  <si>
     <t>Search price</t>
   </si>
   <si>
@@ -267,10 +261,16 @@
     <t>Pricing</t>
   </si>
   <si>
-    <t>View pricing</t>
-  </si>
-  <si>
     <t>CTC-CarrierTradingCenter</t>
+  </si>
+  <si>
+    <t>View price</t>
+  </si>
+  <si>
+    <t>Edit price</t>
+  </si>
+  <si>
+    <t>View price / search price</t>
   </si>
 </sst>
 </file>
@@ -500,6 +500,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,24 +585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -545,24 +599,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -579,42 +615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -951,7 +951,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -961,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,556 +982,556 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>1</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="28"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="28"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="14"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>2</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="28"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="28"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="28"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="28"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>3</v>
+      </c>
+      <c r="B26" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8" t="s">
+      <c r="C26" s="22"/>
+      <c r="D26" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="21" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="14"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="14"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="14"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="8" t="s">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="28"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="37"/>
+      <c r="F34" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="28"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="14"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="28"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="14"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="28"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="28"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="28"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="21" t="s">
+      <c r="E40" s="22"/>
+      <c r="F40" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>2</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="32"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>3</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="20"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
       <c r="F41" s="2" t="s">
         <v>9</v>
       </c>
@@ -1540,56 +1540,106 @@
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="27">
         <v>4</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="34"/>
-      <c r="F42" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="20"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="17"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="35"/>
       <c r="F43" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="23"/>
+        <v>42</v>
+      </c>
+      <c r="G43" s="19"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="34"/>
-      <c r="F44" s="21" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="20"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="66">
+    <mergeCell ref="A26:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="B3:C14"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B15:C25"/>
+    <mergeCell ref="A15:A25"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D20:E22"/>
+    <mergeCell ref="D3:E8"/>
+    <mergeCell ref="D9:E11"/>
+    <mergeCell ref="B42:C44"/>
+    <mergeCell ref="B26:C41"/>
+    <mergeCell ref="D30:E33"/>
+    <mergeCell ref="D34:E36"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D26:E29"/>
+    <mergeCell ref="D15:E19"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="D37:E39"/>
+    <mergeCell ref="D40:E41"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:I39"/>
+    <mergeCell ref="F40:I40"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D23:E24"/>
     <mergeCell ref="D42:E42"/>
@@ -1606,56 +1656,6 @@
     <mergeCell ref="F32:I32"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F39:I39"/>
-    <mergeCell ref="F40:I40"/>
-    <mergeCell ref="D37:E39"/>
-    <mergeCell ref="D40:E41"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D26:E29"/>
-    <mergeCell ref="D15:E19"/>
-    <mergeCell ref="A26:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B3:C14"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B15:C25"/>
-    <mergeCell ref="A15:A25"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D20:E22"/>
-    <mergeCell ref="D3:E8"/>
-    <mergeCell ref="D9:E11"/>
-    <mergeCell ref="B42:C44"/>
-    <mergeCell ref="B26:C41"/>
-    <mergeCell ref="D30:E33"/>
-    <mergeCell ref="D34:E36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
